--- a/src/main/resources/python/MultifacetedModeling/DataOutput/KNN/frequency.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/KNN/frequency.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -670,908 +670,908 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.34285714285714286</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.45714285714285713</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.42857142857142855</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.37142857142857144</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3142857142857143</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.42857142857142855</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.4857142857142857</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3142857142857143</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.42857142857142855</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5142857142857142</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5428571428571428</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.45714285714285713</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3142857142857143</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.42857142857142855</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5428571428571428</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.22857142857142856</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2857142857142857</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.37142857142857144</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.34285714285714286</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5142857142857142</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.42857142857142855</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.34285714285714286</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.7714285714285715</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.7714285714285715</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.7142857142857143</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.6571428571428571</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.8285714285714286</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5428571428571428</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.8571428571428571</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2571428571428571</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2571428571428571</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.42857142857142855</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.37142857142857144</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4857142857142857</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.34285714285714286</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.34285714285714286</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.26666666666666666</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.4666666666666667</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.13333333333333333</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.06666666666666667</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.06666666666666667</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.26666666666666666</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.06666666666666667</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.06666666666666667</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.26666666666666666</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5333333333333333</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.4666666666666667</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.5333333333333333</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.7333333333333333</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5333333333333333</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.26666666666666666</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.4666666666666667</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.26666666666666666</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.8666666666666667</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.72</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.52</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/KNN/frequency.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/KNN/frequency.xlsx
@@ -670,908 +670,908 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.34285714285714286</t>
+          <t>0.23529411764705882</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.45714285714285713</t>
+          <t>0.6470588235294118</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.42857142857142855</t>
+          <t>0.5294117647058824</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.37142857142857144</t>
+          <t>0.7058823529411765</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.3142857142857143</t>
+          <t>0.29411764705882354</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.42857142857142855</t>
+          <t>0.29411764705882354</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4857142857142857</t>
+          <t>0.29411764705882354</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.29411764705882354</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.3142857142857143</t>
+          <t>0.8235294117647058</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.23529411764705882</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.47058823529411764</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.35294117647058826</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.5882352941176471</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.42857142857142855</t>
+          <t>0.35294117647058826</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.5142857142857142</t>
+          <t>0.6470588235294118</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.5428571428571428</t>
+          <t>0.5294117647058824</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.45714285714285713</t>
+          <t>0.7058823529411765</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.5294117647058824</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.3142857142857143</t>
+          <t>0.5294117647058824</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.42857142857142855</t>
+          <t>0.7058823529411765</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.5428571428571428</t>
+          <t>0.29411764705882354</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.22857142857142856</t>
+          <t>0.47058823529411764</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.2857142857142857</t>
+          <t>0.47058823529411764</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.5294117647058824</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.37142857142857144</t>
+          <t>0.5294117647058824</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.47058823529411764</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.34285714285714286</t>
+          <t>0.6470588235294118</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.5294117647058824</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.5142857142857142</t>
+          <t>0.5294117647058824</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.42857142857142855</t>
+          <t>0.4117647058823529</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.34285714285714286</t>
+          <t>0.5294117647058824</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.7714285714285715</t>
+          <t>0.6470588235294118</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.7714285714285715</t>
+          <t>0.6470588235294118</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.7142857142857143</t>
+          <t>0.7058823529411765</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.6571428571428571</t>
+          <t>0.7647058823529411</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.8285714285714286</t>
+          <t>0.7058823529411765</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.5428571428571428</t>
+          <t>0.47058823529411764</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.8571428571428571</t>
+          <t>0.5882352941176471</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.2571428571428571</t>
+          <t>0.29411764705882354</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.2571428571428571</t>
+          <t>0.29411764705882354</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.42857142857142855</t>
+          <t>0.4117647058823529</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.37142857142857144</t>
+          <t>0.5294117647058824</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.4857142857142857</t>
+          <t>0.35294117647058826</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.34285714285714286</t>
+          <t>0.23529411764705882</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.34285714285714286</t>
+          <t>0.5882352941176471</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.26666666666666666</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>0.42424242424242425</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.3939393939393939</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>0.3333333333333333</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.4666666666666667</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.13333333333333333</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.06666666666666667</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>0.48484848484848486</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.42424242424242425</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>0.3333333333333333</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.06666666666666667</t>
+          <t>0.42424242424242425</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.26666666666666666</t>
+          <t>0.18181818181818182</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>0.3939393939393939</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0.21212121212121213</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0.42424242424242425</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0.48484848484848486</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.5757575757575758</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.45454545454545453</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.5757575757575758</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.30303030303030304</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.45454545454545453</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0.5454545454545454</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0.24242424242424243</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0.2727272727272727</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0.3939393939393939</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0.36363636363636365</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0.5757575757575758</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>0.30303030303030304</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>0.6060606060606061</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>0.48484848484848486</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>0.42424242424242425</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>0.36363636363636365</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0.7575757575757576</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0.7575757575757576</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0.7272727272727273</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0.6363636363636364</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>0.8787878787878788</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>0.5151515151515151</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>0.9090909090909091</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>0.2727272727272727</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>0.2727272727272727</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0.42424242424242425</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0.36363636363636365</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>0.5151515151515151</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
           <t>0.3333333333333333</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0.06666666666666667</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0.06666666666666667</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0.26666666666666666</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0.5333333333333333</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0.4666666666666667</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0.5333333333333333</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>0.7333333333333333</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0.5333333333333333</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0.26666666666666666</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>0.4666666666666667</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>0.26666666666666666</t>
-        </is>
-      </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.8666666666666667</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.4782608695652174</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.391304347826087</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.43478260869565216</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.4782608695652174</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.13043478260869565</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.08695652173913043</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.43478260869565216</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.2608695652173913</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.6086956521739131</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.08695652173913043</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2608695652173913</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.30434782608695654</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.43478260869565216</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.13043478260869565</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.43478260869565216</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.6521739130434783</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.6521739130434783</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.5652173913043478</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.21739130434782608</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.5217391304347826</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.34782608695652173</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.43478260869565216</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.4782608695652174</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.5217391304347826</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.43478260869565216</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.6086956521739131</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.5652173913043478</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.6521739130434783</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.43478260869565216</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.6521739130434783</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.21739130434782608</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.6086956521739131</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.4782608695652174</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.30434782608695654</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.6521739130434783</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.6521739130434783</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.4782608695652174</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.782608695652174</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.30434782608695654</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.30434782608695654</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.34782608695652173</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.34782608695652173</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.30434782608695654</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.34782608695652173</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.9130434782608695</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.2222222222222222</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.25925925925925924</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.18518518518518517</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.48148148148148145</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.25925925925925924</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07407407407407407</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.2222222222222222</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.2962962962962963</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.25925925925925924</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.25925925925925924</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.18518518518518517</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.37037037037037035</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.2962962962962963</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.4444444444444444</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.7037037037037037</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.5555555555555556</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.25925925925925924</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.5555555555555556</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.2962962962962963</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.18518518518518517</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.25925925925925924</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.4444444444444444</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.48148148148148145</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.4074074074074074</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.48148148148148145</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.4444444444444444</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.48148148148148145</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.4444444444444444</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.7407407407407407</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.5925925925925926</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.6296296296296297</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.8148148148148148</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.7037037037037037</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.4444444444444444</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.2962962962962963</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.4444444444444444</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.2962962962962963</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.18518518518518517</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.25925925925925924</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.48148148148148145</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/KNN/frequency.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/KNN/frequency.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -670,908 +670,908 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.23529411764705882</t>
+          <t>0.3559322033898305</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.6470588235294118</t>
+          <t>0.4406779661016949</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.5294117647058824</t>
+          <t>0.22033898305084745</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.7058823529411765</t>
+          <t>0.5254237288135594</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.29411764705882354</t>
+          <t>0.1016949152542373</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.29411764705882354</t>
+          <t>0.06779661016949153</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.29411764705882354</t>
+          <t>0.4576271186440678</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.29411764705882354</t>
+          <t>0.3559322033898305</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.8235294117647058</t>
+          <t>0.7288135593220338</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.23529411764705882</t>
+          <t>0.4745762711864407</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.47058823529411764</t>
+          <t>0.13559322033898305</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.35294117647058826</t>
+          <t>0.6440677966101694</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.5882352941176471</t>
+          <t>0.423728813559322</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.35294117647058826</t>
+          <t>0.23728813559322035</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.6470588235294118</t>
+          <t>0.22033898305084745</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.5294117647058824</t>
+          <t>0.4406779661016949</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.7058823529411765</t>
+          <t>0.5423728813559322</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.5294117647058824</t>
+          <t>0.4576271186440678</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.5294117647058824</t>
+          <t>0.423728813559322</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.7058823529411765</t>
+          <t>0.711864406779661</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.29411764705882354</t>
+          <t>0.423728813559322</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.47058823529411764</t>
+          <t>0.23728813559322035</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.47058823529411764</t>
+          <t>0.4576271186440678</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.5294117647058824</t>
+          <t>0.5254237288135594</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.5294117647058824</t>
+          <t>0.4067796610169492</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.47058823529411764</t>
+          <t>0.7796610169491526</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.6470588235294118</t>
+          <t>0.5254237288135594</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.5294117647058824</t>
+          <t>0.5423728813559322</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.5294117647058824</t>
+          <t>0.5423728813559322</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.4117647058823529</t>
+          <t>0.5932203389830508</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.5294117647058824</t>
+          <t>0.711864406779661</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.6470588235294118</t>
+          <t>0.864406779661017</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.6470588235294118</t>
+          <t>0.6271186440677966</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.7058823529411765</t>
+          <t>0.6610169491525424</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.7647058823529411</t>
+          <t>0.3898305084745763</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.7058823529411765</t>
+          <t>0.6101694915254238</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.47058823529411764</t>
+          <t>0.4067796610169492</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.5882352941176471</t>
+          <t>0.6779661016949152</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.29411764705882354</t>
+          <t>0.11864406779661017</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.29411764705882354</t>
+          <t>0.4745762711864407</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.4117647058823529</t>
+          <t>0.1864406779661017</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.5294117647058824</t>
+          <t>0.11864406779661017</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.35294117647058826</t>
+          <t>0.15254237288135594</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.23529411764705882</t>
+          <t>0.3389830508474576</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.5882352941176471</t>
+          <t>0.8813559322033898</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.21052631578947367</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.45454545454545453</t>
+          <t>0.3508771929824561</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.42424242424242425</t>
+          <t>0.2631578947368421</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.3939393939393939</t>
+          <t>0.42105263157894735</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>0.07017543859649122</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.10526315789473684</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.19298245614035087</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.2807017543859649</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.45614035087719296</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.3157894736842105</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0.12280701754385964</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.5087719298245614</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>0.3333333333333333</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.45454545454545453</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.48484848484848486</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.42424242424242425</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0.3157894736842105</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0.3684210526315789</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.5964912280701754</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.6666666666666666</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.49122807017543857</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.40350877192982454</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.6842105263157895</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0.40350877192982454</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0.38596491228070173</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0.42105263157894735</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0.5964912280701754</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0.38596491228070173</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0.8070175438596491</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>0.5964912280701754</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>0.5614035087719298</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>0.543859649122807</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>0.7017543859649122</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>0.5964912280701754</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0.8596491228070176</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0.6842105263157895</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0.6491228070175439</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0.6491228070175439</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>0.5087719298245614</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>0.5789473684210527</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>0.5964912280701754</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>0.14035087719298245</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>0.3157894736842105</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0.2631578947368421</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0.21052631578947367</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>0.21052631578947367</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
         <is>
           <t>0.3333333333333333</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0.42424242424242425</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0.18181818181818182</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0.3939393939393939</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0.21212121212121213</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0.42424242424242425</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0.48484848484848486</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.5757575757575758</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0.45454545454545453</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.5757575757575758</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0.30303030303030304</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.45454545454545453</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0.5454545454545454</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0.24242424242424243</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0.2727272727272727</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0.3939393939393939</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0.36363636363636365</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0.5757575757575758</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.30303030303030304</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>0.6060606060606061</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>0.48484848484848486</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>0.42424242424242425</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>0.36363636363636365</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0.7575757575757576</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0.7575757575757576</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0.7272727272727273</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0.6363636363636364</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>0.8787878787878788</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>0.5151515151515151</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>0.9090909090909091</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>0.2727272727272727</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>0.2727272727272727</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>0.42424242424242425</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>0.36363636363636365</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>0.5151515151515151</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.5789473684210527</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.4782608695652174</t>
+          <t>0.09090909090909091</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.391304347826087</t>
+          <t>0.3181818181818182</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.43478260869565216</t>
+          <t>0.13636363636363635</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.4782608695652174</t>
+          <t>0.2727272727272727</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.13043478260869565</t>
+          <t>0.13636363636363635</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.08695652173913043</t>
+          <t>0.045454545454545456</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.43478260869565216</t>
+          <t>0.09090909090909091</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.2608695652173913</t>
+          <t>0.09090909090909091</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.6086956521739131</t>
+          <t>0.3181818181818182</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.08695652173913043</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.2608695652173913</t>
+          <t>0.09090909090909091</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.30434782608695654</t>
+          <t>0.4090909090909091</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.43478260869565216</t>
+          <t>0.09090909090909091</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.13043478260869565</t>
+          <t>0.13636363636363635</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.43478260869565216</t>
+          <t>0.13636363636363635</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.6521739130434783</t>
+          <t>0.2727272727272727</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.6521739130434783</t>
+          <t>0.3181818181818182</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.5652173913043478</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.21739130434782608</t>
+          <t>0.045454545454545456</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.5217391304347826</t>
+          <t>0.7272727272727273</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.34782608695652173</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.43478260869565216</t>
+          <t>0.045454545454545456</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.4782608695652174</t>
+          <t>0.3181818181818182</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.5217391304347826</t>
+          <t>0.4090909090909091</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.43478260869565216</t>
+          <t>0.2727272727272727</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.6086956521739131</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.5652173913043478</t>
+          <t>0.5454545454545454</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.6521739130434783</t>
+          <t>0.3181818181818182</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.43478260869565216</t>
+          <t>0.3181818181818182</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.6521739130434783</t>
+          <t>0.7727272727272727</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.21739130434782608</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.6086956521739131</t>
+          <t>0.9545454545454546</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.4782608695652174</t>
+          <t>0.5454545454545454</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.30434782608695654</t>
+          <t>0.5909090909090909</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.6521739130434783</t>
+          <t>0.8181818181818182</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.6521739130434783</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.4782608695652174</t>
+          <t>0.6363636363636364</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0.782608695652174</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.30434782608695654</t>
+          <t>0.13636363636363635</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.30434782608695654</t>
+          <t>0.13636363636363635</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.34782608695652173</t>
+          <t>0.22727272727272727</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.34782608695652173</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.30434782608695654</t>
+          <t>0.22727272727272727</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0.34782608695652173</t>
+          <t>0.22727272727272727</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>0.9130434782608695</t>
+          <t>0.5454545454545454</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.2222222222222222</t>
+          <t>0.22580645161290322</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.25925925925925924</t>
+          <t>0.41935483870967744</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.18518518518518517</t>
+          <t>0.1774193548387097</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.48148148148148145</t>
+          <t>0.41935483870967744</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.25925925925925924</t>
+          <t>0.08064516129032258</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.07407407407407407</t>
+          <t>0.0967741935483871</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2222222222222222</t>
+          <t>0.3387096774193548</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.2962962962962963</t>
+          <t>0.27419354838709675</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.25925925925925924</t>
+          <t>0.6129032258064516</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.25925925925925924</t>
+          <t>0.5967741935483871</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.18518518518518517</t>
+          <t>0.12903225806451613</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.37037037037037035</t>
+          <t>0.5806451612903226</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.2962962962962963</t>
+          <t>0.2903225806451613</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.1774193548387097</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.24193548387096775</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.4444444444444444</t>
+          <t>0.532258064516129</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.7037037037037037</t>
+          <t>0.5483870967741935</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.5555555555555556</t>
+          <t>0.5483870967741935</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.25925925925925924</t>
+          <t>0.3225806451612903</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.5555555555555556</t>
+          <t>0.6935483870967742</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.2962962962962963</t>
+          <t>0.3870967741935484</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.18518518518518517</t>
+          <t>0.25806451612903225</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0.25925925925925924</t>
+          <t>0.24193548387096775</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0.4444444444444444</t>
+          <t>0.41935483870967744</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.1935483870967742</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>0.48148148148148145</t>
+          <t>0.8387096774193549</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.4074074074074074</t>
+          <t>0.532258064516129</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0.48148148148148145</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>0.4444444444444444</t>
+          <t>0.5161290322580645</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>0.48148148148148145</t>
+          <t>0.6451612903225806</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>0.4444444444444444</t>
+          <t>0.7419354838709677</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.8387096774193549</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.46774193548387094</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>0.7407407407407407</t>
+          <t>0.6290322580645161</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.5925925925925926</t>
+          <t>0.46774193548387094</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>0.6296296296296297</t>
+          <t>0.3870967741935484</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>0.8148148148148148</t>
+          <t>0.5645161290322581</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>0.7037037037037037</t>
+          <t>0.7096774193548387</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>0.4444444444444444</t>
+          <t>0.11290322580645161</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>0.2962962962962963</t>
+          <t>0.24193548387096775</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>0.4444444444444444</t>
+          <t>0.20967741935483872</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>0.2962962962962963</t>
+          <t>0.1935483870967742</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>0.18518518518518517</t>
+          <t>0.04838709677419355</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>0.25925925925925924</t>
+          <t>0.5483870967741935</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>0.48148148148148145</t>
+          <t>0.8870967741935484</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/KNN/frequency.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/KNN/frequency.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -670,908 +670,908 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.34285714285714286</t>
+          <t>0.38461538461538464</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.45714285714285713</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.42857142857142855</t>
+          <t>0.5769230769230769</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.37142857142857144</t>
+          <t>0.6153846153846154</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.3142857142857143</t>
+          <t>0.46153846153846156</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.42857142857142855</t>
+          <t>0.5384615384615384</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4857142857142857</t>
+          <t>0.4230769230769231</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.38461538461538464</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.3142857142857143</t>
+          <t>0.34615384615384615</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.4230769230769231</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.34615384615384615</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.6153846153846154</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.5384615384615384</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.42857142857142855</t>
+          <t>0.4230769230769231</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.5142857142857142</t>
+          <t>0.4230769230769231</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.5428571428571428</t>
+          <t>0.6153846153846154</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.45714285714285713</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.6153846153846154</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.3142857142857143</t>
+          <t>0.4230769230769231</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.42857142857142855</t>
+          <t>0.38461538461538464</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.5428571428571428</t>
+          <t>0.38461538461538464</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.22857142857142856</t>
+          <t>0.46153846153846156</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.2857142857142857</t>
+          <t>0.46153846153846156</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.5769230769230769</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.37142857142857144</t>
+          <t>0.6153846153846154</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.6153846153846154</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.34285714285714286</t>
+          <t>0.5769230769230769</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.6923076923076923</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.5142857142857142</t>
+          <t>0.5384615384615384</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.42857142857142855</t>
+          <t>0.6538461538461539</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.34285714285714286</t>
+          <t>0.34615384615384615</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.7714285714285715</t>
+          <t>0.7307692307692307</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.7714285714285715</t>
+          <t>0.6538461538461539</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.7142857142857143</t>
+          <t>0.6923076923076923</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.6571428571428571</t>
+          <t>0.5769230769230769</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.8285714285714286</t>
+          <t>0.6923076923076923</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.5428571428571428</t>
+          <t>0.7307692307692307</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.8571428571428571</t>
+          <t>0.6538461538461539</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.2571428571428571</t>
+          <t>0.19230769230769232</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.2571428571428571</t>
+          <t>0.34615384615384615</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.42857142857142855</t>
+          <t>0.19230769230769232</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.37142857142857144</t>
+          <t>0.46153846153846156</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.4857142857142857</t>
+          <t>0.4230769230769231</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.34285714285714286</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.34285714285714286</t>
+          <t>0.19230769230769232</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.26666666666666666</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.13636363636363635</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.3181818181818182</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.4666666666666667</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.13333333333333333</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.06666666666666667</t>
+          <t>0.5454545454545454</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.3181818181818182</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4090909090909091</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.5454545454545454</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.06666666666666667</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.26666666666666666</t>
+          <t>0.3181818181818182</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.4090909090909091</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.06666666666666667</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.18181818181818182</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.7272727272727273</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.5909090909090909</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.5454545454545454</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.06666666666666667</t>
+          <t>0.6818181818181818</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.6818181818181818</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.26666666666666666</t>
+          <t>0.9090909090909091</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.5333333333333333</t>
+          <t>0.5454545454545454</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.4666666666666667</t>
+          <t>0.5909090909090909</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.5333333333333333</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.18181818181818182</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.6818181818181818</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.4090909090909091</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.7333333333333333</t>
+          <t>0.5454545454545454</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.5909090909090909</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.5333333333333333</t>
+          <t>0.7727272727272727</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.5454545454545454</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.26666666666666666</t>
+          <t>0.8181818181818182</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.8181818181818182</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.6818181818181818</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.8636363636363636</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.22727272727272727</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.22727272727272727</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.4666666666666667</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.13636363636363635</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.26666666666666666</t>
+          <t>0.4090909090909091</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.8666666666666667</t>
+          <t>0.4090909090909091</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.16666666666666666</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.16666666666666666</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.2777777777777778</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.4444444444444444</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.2222222222222222</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.16666666666666666</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.16666666666666666</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.3888888888888889</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2777777777777778</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.4444444444444444</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.3888888888888889</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.2777777777777778</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.1111111111111111</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.5555555555555556</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.3888888888888889</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.7222222222222222</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.3888888888888889</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.5555555555555556</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.3888888888888889</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.3888888888888889</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.5555555555555556</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.4444444444444444</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.2777777777777778</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.5555555555555556</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.3888888888888889</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.4444444444444444</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.4444444444444444</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.8333333333333334</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.7222222222222222</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.7222222222222222</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.7222222222222222</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.7777777777777778</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.6111111111111112</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.05555555555555555</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.2777777777777778</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.5555555555555556</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.3888888888888889</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2222222222222222</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.05555555555555555</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.29411764705882354</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.38235294117647056</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.38235294117647056</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.38235294117647056</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.2647058823529412</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.23529411764705882</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.35294117647058826</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.7058823529411765</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.5294117647058824</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.38235294117647056</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.6764705882352942</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.4117647058823529</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.5588235294117647</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.23529411764705882</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.5882352941176471</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.38235294117647056</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.5294117647058824</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.35294117647058826</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.5588235294117647</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.3235294117647059</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.5588235294117647</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.2647058823529412</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.6176470588235294</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.38235294117647056</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.6176470588235294</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.47058823529411764</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.5588235294117647</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.5588235294117647</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.3235294117647059</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.8529411764705882</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.7058823529411765</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.7647058823529411</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.7058823529411765</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.7352941176470589</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.7058823529411765</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.6764705882352942</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.4411764705882353</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.3235294117647059</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.38235294117647056</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4117647058823529</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.2647058823529412</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.35294117647058826</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/KNN/frequency.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/KNN/frequency.xlsx
@@ -670,908 +670,908 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.38461538461538464</t>
+          <t>0.15789473684210525</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.3684210526315789</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.5769230769230769</t>
+          <t>0.3684210526315789</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.6153846153846154</t>
+          <t>0.47368421052631576</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.46153846153846156</t>
+          <t>0.21052631578947367</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.5384615384615384</t>
+          <t>0.42105263157894735</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4230769230769231</t>
+          <t>0.3684210526315789</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.38461538461538464</t>
+          <t>0.3157894736842105</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.34615384615384615</t>
+          <t>0.5789473684210527</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.4230769230769231</t>
+          <t>0.5789473684210527</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.34615384615384615</t>
+          <t>0.42105263157894735</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.6153846153846154</t>
+          <t>0.5263157894736842</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.5384615384615384</t>
+          <t>0.42105263157894735</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.4230769230769231</t>
+          <t>0.2631578947368421</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.4230769230769231</t>
+          <t>0.5263157894736842</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.6153846153846154</t>
+          <t>0.6842105263157895</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.6842105263157895</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.6153846153846154</t>
+          <t>0.3684210526315789</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.4230769230769231</t>
+          <t>0.5789473684210527</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.38461538461538464</t>
+          <t>0.7368421052631579</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.38461538461538464</t>
+          <t>0.3684210526315789</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.46153846153846156</t>
+          <t>0.3684210526315789</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.46153846153846156</t>
+          <t>0.5789473684210527</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.5769230769230769</t>
+          <t>0.47368421052631576</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.6153846153846154</t>
+          <t>0.47368421052631576</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.6153846153846154</t>
+          <t>0.5789473684210527</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.5769230769230769</t>
+          <t>0.631578947368421</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.6923076923076923</t>
+          <t>0.42105263157894735</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.5384615384615384</t>
+          <t>0.5263157894736842</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.6538461538461539</t>
+          <t>0.3684210526315789</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.34615384615384615</t>
+          <t>0.47368421052631576</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.7307692307692307</t>
+          <t>0.8421052631578947</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.6538461538461539</t>
+          <t>0.42105263157894735</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.6923076923076923</t>
+          <t>0.6842105263157895</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.5769230769230769</t>
+          <t>0.5263157894736842</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.6923076923076923</t>
+          <t>0.6842105263157895</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.7307692307692307</t>
+          <t>0.5789473684210527</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.6538461538461539</t>
+          <t>0.631578947368421</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.19230769230769232</t>
+          <t>0.2631578947368421</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.34615384615384615</t>
+          <t>0.21052631578947367</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.19230769230769232</t>
+          <t>0.3684210526315789</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.46153846153846156</t>
+          <t>0.15789473684210525</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.4230769230769231</t>
+          <t>0.3684210526315789</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.631578947368421</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.19230769230769232</t>
+          <t>0.21052631578947367</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.13636363636363635</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.3181818181818182</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.45454545454545453</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.5454545454545454</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3181818181818182</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.4090909090909091</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.5454545454545454</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.45454545454545453</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.3181818181818182</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.4090909090909091</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.45454545454545453</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.18181818181818182</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.7272727272727273</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.5909090909090909</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.5454545454545454</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.6818181818181818</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.6818181818181818</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.9090909090909091</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.5454545454545454</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.5909090909090909</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.45454545454545453</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.18181818181818182</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.6818181818181818</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.4090909090909091</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.5454545454545454</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.5909090909090909</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.7727272727272727</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.5454545454545454</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.8181818181818182</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.8181818181818182</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.6818181818181818</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.8636363636363636</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.45454545454545453</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.22727272727272727</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.36363636363636365</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.22727272727272727</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.13636363636363635</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.4090909090909091</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.4090909090909091</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.16666666666666666</t>
+          <t>0.2903225806451613</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.16666666666666666</t>
+          <t>0.7096774193548387</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.2777777777777778</t>
+          <t>0.25806451612903225</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.4444444444444444</t>
+          <t>0.6129032258064516</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.2222222222222222</t>
+          <t>0.3870967741935484</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.16666666666666666</t>
+          <t>0.45161290322580644</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.16666666666666666</t>
+          <t>0.3548387096774194</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.22580645161290322</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.1935483870967742</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.3888888888888889</t>
+          <t>0.6129032258064516</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.2777777777777778</t>
+          <t>0.3225806451612903</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.4444444444444444</t>
+          <t>0.7419354838709677</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.3888888888888889</t>
+          <t>0.45161290322580644</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.2777777777777778</t>
+          <t>0.3870967741935484</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.1111111111111111</t>
+          <t>0.3870967741935484</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.5555555555555556</t>
+          <t>0.7096774193548387</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.3888888888888889</t>
+          <t>0.6774193548387096</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.7222222222222222</t>
+          <t>0.5483870967741935</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.3888888888888889</t>
+          <t>0.6774193548387096</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.5555555555555556</t>
+          <t>0.5483870967741935</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.3888888888888889</t>
+          <t>0.6129032258064516</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.41935483870967744</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.3888888888888889</t>
+          <t>0.5483870967741935</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.3870967741935484</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.5555555555555556</t>
+          <t>0.6129032258064516</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.4444444444444444</t>
+          <t>0.6774193548387096</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.2777777777777778</t>
+          <t>0.7419354838709677</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.5555555555555556</t>
+          <t>0.25806451612903225</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.3888888888888889</t>
+          <t>0.45161290322580644</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.4444444444444444</t>
+          <t>0.4838709677419355</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.4444444444444444</t>
+          <t>0.5806451612903226</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.8333333333333334</t>
+          <t>0.8064516129032258</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.7222222222222222</t>
+          <t>0.5483870967741935</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.7222222222222222</t>
+          <t>0.8064516129032258</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.6451612903225806</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.7222222222222222</t>
+          <t>0.7419354838709677</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.7777777777777778</t>
+          <t>0.6451612903225806</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0.6111111111111112</t>
+          <t>0.6129032258064516</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.05555555555555555</t>
+          <t>0.0967741935483871</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.2777777777777778</t>
+          <t>0.41935483870967744</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.5555555555555556</t>
+          <t>0.45161290322580644</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.3888888888888889</t>
+          <t>0.45161290322580644</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.2222222222222222</t>
+          <t>0.3225806451612903</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.6774193548387096</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>0.05555555555555555</t>
+          <t>0.1935483870967742</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.29411764705882354</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.38235294117647056</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.38235294117647056</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.38235294117647056</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.2647058823529412</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.23529411764705882</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.35294117647058826</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.7058823529411765</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.5294117647058824</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.38235294117647056</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.6764705882352942</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.4117647058823529</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.5588235294117647</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.23529411764705882</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.5882352941176471</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.38235294117647056</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.5294117647058824</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.35294117647058826</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.5588235294117647</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.3235294117647059</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.5588235294117647</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0.2647058823529412</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0.6176470588235294</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>0.38235294117647056</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>0.6176470588235294</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.47058823529411764</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>0.5588235294117647</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>0.5588235294117647</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>0.3235294117647059</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>0.8529411764705882</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>0.7058823529411765</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>0.7647058823529411</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.7058823529411765</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>0.7352941176470589</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>0.7058823529411765</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>0.6764705882352942</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>0.4411764705882353</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>0.3235294117647059</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>0.38235294117647056</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>0.4117647058823529</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>0.2647058823529412</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>0.35294117647058826</t>
+          <t>0.08</t>
         </is>
       </c>
     </row>
